--- a/docs/testing/2021-11-27-01/T000003新建图元测试.xlsx
+++ b/docs/testing/2021-11-27-01/T000003新建图元测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\docs\testing\2021-11-27-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E49034-01CF-4ADD-A455-E40B45FEC870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C69CFFC-D546-4750-88F7-2FDC9FAECDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{20DA2BEF-9469-4F7D-9F61-3651835C6068}"/>
   </bookViews>
@@ -34,8 +34,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Xiang Liu</author>
+  </authors>
+  <commentList>
+    <comment ref="AA65" authorId="0" shapeId="0" xr:uid="{E39049DC-AE00-49C0-B5DE-723D07CE3A82}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Xiang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+修改了字号计算方式</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="110">
   <si>
     <t>编号</t>
   </si>
@@ -347,6 +381,24 @@
   </si>
   <si>
     <t>不可用</t>
+  </si>
+  <si>
+    <t>同14</t>
+  </si>
+  <si>
+    <t>缩放移动图元后，只要图元在视口范围内，均正常显示</t>
+  </si>
+  <si>
+    <t>有时会消失，应该是外框计算错误</t>
+  </si>
+  <si>
+    <t>接上，修改字体大小</t>
+  </si>
+  <si>
+    <t>字体相应变化，图元外框变化</t>
+  </si>
+  <si>
+    <t>图元外框没有变化</t>
   </si>
 </sst>
 </file>
@@ -356,7 +408,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +434,27 @@
     <font>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -577,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -701,6 +774,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3186,11 +3277,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3420FCF0-6D70-4DA9-8C04-828EBD1DDF9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3420FCF0-6D70-4DA9-8C04-828EBD1DDF9A}">
   <dimension ref="A2:AO114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:AO3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="AA101" sqref="AA101:AL102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5971,22 +6062,22 @@
       <c r="X65" s="32"/>
       <c r="Y65" s="32"/>
       <c r="Z65" s="33"/>
-      <c r="AA65" s="31" t="s">
+      <c r="AA65" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AB65" s="32"/>
-      <c r="AC65" s="32"/>
-      <c r="AD65" s="32"/>
-      <c r="AE65" s="32"/>
-      <c r="AF65" s="32"/>
-      <c r="AG65" s="32"/>
-      <c r="AH65" s="32"/>
-      <c r="AI65" s="32"/>
-      <c r="AJ65" s="32"/>
-      <c r="AK65" s="32"/>
-      <c r="AL65" s="33"/>
+      <c r="AB65" s="43"/>
+      <c r="AC65" s="43"/>
+      <c r="AD65" s="43"/>
+      <c r="AE65" s="43"/>
+      <c r="AF65" s="43"/>
+      <c r="AG65" s="43"/>
+      <c r="AH65" s="43"/>
+      <c r="AI65" s="43"/>
+      <c r="AJ65" s="43"/>
+      <c r="AK65" s="43"/>
+      <c r="AL65" s="44"/>
       <c r="AM65" s="37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AN65" s="38"/>
       <c r="AO65" s="38"/>
@@ -6018,18 +6109,18 @@
       <c r="X66" s="35"/>
       <c r="Y66" s="35"/>
       <c r="Z66" s="36"/>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="35"/>
-      <c r="AC66" s="35"/>
-      <c r="AD66" s="35"/>
-      <c r="AE66" s="35"/>
-      <c r="AF66" s="35"/>
-      <c r="AG66" s="35"/>
-      <c r="AH66" s="35"/>
-      <c r="AI66" s="35"/>
-      <c r="AJ66" s="35"/>
-      <c r="AK66" s="35"/>
-      <c r="AL66" s="36"/>
+      <c r="AA66" s="45"/>
+      <c r="AB66" s="46"/>
+      <c r="AC66" s="46"/>
+      <c r="AD66" s="46"/>
+      <c r="AE66" s="46"/>
+      <c r="AF66" s="46"/>
+      <c r="AG66" s="46"/>
+      <c r="AH66" s="46"/>
+      <c r="AI66" s="46"/>
+      <c r="AJ66" s="46"/>
+      <c r="AK66" s="46"/>
+      <c r="AL66" s="47"/>
       <c r="AM66" s="39"/>
       <c r="AN66" s="40"/>
       <c r="AO66" s="40"/>
@@ -7657,22 +7748,22 @@
       <c r="X101" s="32"/>
       <c r="Y101" s="32"/>
       <c r="Z101" s="33"/>
-      <c r="AA101" s="31" t="s">
+      <c r="AA101" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="AB101" s="32"/>
-      <c r="AC101" s="32"/>
-      <c r="AD101" s="32"/>
-      <c r="AE101" s="32"/>
-      <c r="AF101" s="32"/>
-      <c r="AG101" s="32"/>
-      <c r="AH101" s="32"/>
-      <c r="AI101" s="32"/>
-      <c r="AJ101" s="32"/>
-      <c r="AK101" s="32"/>
-      <c r="AL101" s="33"/>
+      <c r="AB101" s="43"/>
+      <c r="AC101" s="43"/>
+      <c r="AD101" s="43"/>
+      <c r="AE101" s="43"/>
+      <c r="AF101" s="43"/>
+      <c r="AG101" s="43"/>
+      <c r="AH101" s="43"/>
+      <c r="AI101" s="43"/>
+      <c r="AJ101" s="43"/>
+      <c r="AK101" s="43"/>
+      <c r="AL101" s="44"/>
       <c r="AM101" s="37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AN101" s="38"/>
       <c r="AO101" s="38"/>
@@ -7704,18 +7795,18 @@
       <c r="X102" s="35"/>
       <c r="Y102" s="35"/>
       <c r="Z102" s="36"/>
-      <c r="AA102" s="34"/>
-      <c r="AB102" s="35"/>
-      <c r="AC102" s="35"/>
-      <c r="AD102" s="35"/>
-      <c r="AE102" s="35"/>
-      <c r="AF102" s="35"/>
-      <c r="AG102" s="35"/>
-      <c r="AH102" s="35"/>
-      <c r="AI102" s="35"/>
-      <c r="AJ102" s="35"/>
-      <c r="AK102" s="35"/>
-      <c r="AL102" s="36"/>
+      <c r="AA102" s="45"/>
+      <c r="AB102" s="46"/>
+      <c r="AC102" s="46"/>
+      <c r="AD102" s="46"/>
+      <c r="AE102" s="46"/>
+      <c r="AF102" s="46"/>
+      <c r="AG102" s="46"/>
+      <c r="AH102" s="46"/>
+      <c r="AI102" s="46"/>
+      <c r="AJ102" s="46"/>
+      <c r="AK102" s="46"/>
+      <c r="AL102" s="47"/>
       <c r="AM102" s="39"/>
       <c r="AN102" s="40"/>
       <c r="AO102" s="40"/>
@@ -7725,7 +7816,9 @@
         <v>34</v>
       </c>
       <c r="B103" s="17"/>
-      <c r="C103" s="31"/>
+      <c r="C103" s="31" t="s">
+        <v>104</v>
+      </c>
       <c r="D103" s="32"/>
       <c r="E103" s="32"/>
       <c r="F103" s="32"/>
@@ -7737,7 +7830,9 @@
       <c r="L103" s="32"/>
       <c r="M103" s="32"/>
       <c r="N103" s="33"/>
-      <c r="O103" s="31"/>
+      <c r="O103" s="31" t="s">
+        <v>105</v>
+      </c>
       <c r="P103" s="32"/>
       <c r="Q103" s="32"/>
       <c r="R103" s="32"/>
@@ -7749,19 +7844,23 @@
       <c r="X103" s="32"/>
       <c r="Y103" s="32"/>
       <c r="Z103" s="33"/>
-      <c r="AA103" s="31"/>
-      <c r="AB103" s="32"/>
-      <c r="AC103" s="32"/>
-      <c r="AD103" s="32"/>
-      <c r="AE103" s="32"/>
-      <c r="AF103" s="32"/>
-      <c r="AG103" s="32"/>
-      <c r="AH103" s="32"/>
-      <c r="AI103" s="32"/>
-      <c r="AJ103" s="32"/>
-      <c r="AK103" s="32"/>
-      <c r="AL103" s="33"/>
-      <c r="AM103" s="37"/>
+      <c r="AA103" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB103" s="43"/>
+      <c r="AC103" s="43"/>
+      <c r="AD103" s="43"/>
+      <c r="AE103" s="43"/>
+      <c r="AF103" s="43"/>
+      <c r="AG103" s="43"/>
+      <c r="AH103" s="43"/>
+      <c r="AI103" s="43"/>
+      <c r="AJ103" s="43"/>
+      <c r="AK103" s="43"/>
+      <c r="AL103" s="44"/>
+      <c r="AM103" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN103" s="38"/>
       <c r="AO103" s="38"/>
     </row>
@@ -7792,18 +7891,18 @@
       <c r="X104" s="35"/>
       <c r="Y104" s="35"/>
       <c r="Z104" s="36"/>
-      <c r="AA104" s="34"/>
-      <c r="AB104" s="35"/>
-      <c r="AC104" s="35"/>
-      <c r="AD104" s="35"/>
-      <c r="AE104" s="35"/>
-      <c r="AF104" s="35"/>
-      <c r="AG104" s="35"/>
-      <c r="AH104" s="35"/>
-      <c r="AI104" s="35"/>
-      <c r="AJ104" s="35"/>
-      <c r="AK104" s="35"/>
-      <c r="AL104" s="36"/>
+      <c r="AA104" s="45"/>
+      <c r="AB104" s="46"/>
+      <c r="AC104" s="46"/>
+      <c r="AD104" s="46"/>
+      <c r="AE104" s="46"/>
+      <c r="AF104" s="46"/>
+      <c r="AG104" s="46"/>
+      <c r="AH104" s="46"/>
+      <c r="AI104" s="46"/>
+      <c r="AJ104" s="46"/>
+      <c r="AK104" s="46"/>
+      <c r="AL104" s="47"/>
       <c r="AM104" s="39"/>
       <c r="AN104" s="40"/>
       <c r="AO104" s="40"/>
@@ -7813,7 +7912,9 @@
         <v>35</v>
       </c>
       <c r="B105" s="17"/>
-      <c r="C105" s="31"/>
+      <c r="C105" s="31" t="s">
+        <v>107</v>
+      </c>
       <c r="D105" s="32"/>
       <c r="E105" s="32"/>
       <c r="F105" s="32"/>
@@ -7825,7 +7926,9 @@
       <c r="L105" s="32"/>
       <c r="M105" s="32"/>
       <c r="N105" s="33"/>
-      <c r="O105" s="31"/>
+      <c r="O105" s="31" t="s">
+        <v>108</v>
+      </c>
       <c r="P105" s="32"/>
       <c r="Q105" s="32"/>
       <c r="R105" s="32"/>
@@ -7837,19 +7940,23 @@
       <c r="X105" s="32"/>
       <c r="Y105" s="32"/>
       <c r="Z105" s="33"/>
-      <c r="AA105" s="31"/>
-      <c r="AB105" s="32"/>
-      <c r="AC105" s="32"/>
-      <c r="AD105" s="32"/>
-      <c r="AE105" s="32"/>
-      <c r="AF105" s="32"/>
-      <c r="AG105" s="32"/>
-      <c r="AH105" s="32"/>
-      <c r="AI105" s="32"/>
-      <c r="AJ105" s="32"/>
-      <c r="AK105" s="32"/>
-      <c r="AL105" s="33"/>
-      <c r="AM105" s="37"/>
+      <c r="AA105" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB105" s="43"/>
+      <c r="AC105" s="43"/>
+      <c r="AD105" s="43"/>
+      <c r="AE105" s="43"/>
+      <c r="AF105" s="43"/>
+      <c r="AG105" s="43"/>
+      <c r="AH105" s="43"/>
+      <c r="AI105" s="43"/>
+      <c r="AJ105" s="43"/>
+      <c r="AK105" s="43"/>
+      <c r="AL105" s="44"/>
+      <c r="AM105" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN105" s="38"/>
       <c r="AO105" s="38"/>
     </row>
@@ -7880,18 +7987,18 @@
       <c r="X106" s="35"/>
       <c r="Y106" s="35"/>
       <c r="Z106" s="36"/>
-      <c r="AA106" s="34"/>
-      <c r="AB106" s="35"/>
-      <c r="AC106" s="35"/>
-      <c r="AD106" s="35"/>
-      <c r="AE106" s="35"/>
-      <c r="AF106" s="35"/>
-      <c r="AG106" s="35"/>
-      <c r="AH106" s="35"/>
-      <c r="AI106" s="35"/>
-      <c r="AJ106" s="35"/>
-      <c r="AK106" s="35"/>
-      <c r="AL106" s="36"/>
+      <c r="AA106" s="45"/>
+      <c r="AB106" s="46"/>
+      <c r="AC106" s="46"/>
+      <c r="AD106" s="46"/>
+      <c r="AE106" s="46"/>
+      <c r="AF106" s="46"/>
+      <c r="AG106" s="46"/>
+      <c r="AH106" s="46"/>
+      <c r="AI106" s="46"/>
+      <c r="AJ106" s="46"/>
+      <c r="AK106" s="46"/>
+      <c r="AL106" s="47"/>
       <c r="AM106" s="39"/>
       <c r="AN106" s="40"/>
       <c r="AO106" s="40"/>
@@ -8567,7 +8674,7 @@
       <formula>NOT(ISERROR(SEARCH("Pass",AM99)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="8">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AO6" xr:uid="{ECEF2431-72BF-4132-958B-B168D5AFA87D}">
       <formula1>"功能验证,修改验证,发布验证"</formula1>
     </dataValidation>
@@ -8596,5 +8703,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/docs/testing/2021-11-27-01/T000003新建图元测试.xlsx
+++ b/docs/testing/2021-11-27-01/T000003新建图元测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\docs\testing\2021-11-27-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C69CFFC-D546-4750-88F7-2FDC9FAECDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD48295E-3961-4311-82F7-39B7C938DDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{20DA2BEF-9469-4F7D-9F61-3651835C6068}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="110">
   <si>
     <t>编号</t>
   </si>
@@ -3280,8 +3280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3420FCF0-6D70-4DA9-8C04-828EBD1DDF9A}">
   <dimension ref="A2:AO114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="AA101" sqref="AA101:AL102"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="AM79" sqref="AM79:AO82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4770,7 +4770,9 @@
       <c r="AJ37" s="32"/>
       <c r="AK37" s="32"/>
       <c r="AL37" s="33"/>
-      <c r="AM37" s="37"/>
+      <c r="AM37" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN37" s="38"/>
       <c r="AO37" s="38"/>
     </row>
@@ -5142,7 +5144,9 @@
       <c r="AJ45" s="32"/>
       <c r="AK45" s="32"/>
       <c r="AL45" s="33"/>
-      <c r="AM45" s="37"/>
+      <c r="AM45" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN45" s="38"/>
       <c r="AO45" s="38"/>
     </row>
@@ -5514,7 +5518,9 @@
       <c r="AJ53" s="32"/>
       <c r="AK53" s="32"/>
       <c r="AL53" s="33"/>
-      <c r="AM53" s="37"/>
+      <c r="AM53" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN53" s="38"/>
       <c r="AO53" s="38"/>
     </row>
@@ -5982,7 +5988,9 @@
       <c r="AJ63" s="32"/>
       <c r="AK63" s="32"/>
       <c r="AL63" s="33"/>
-      <c r="AM63" s="37"/>
+      <c r="AM63" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN63" s="38"/>
       <c r="AO63" s="38"/>
     </row>
@@ -6452,7 +6460,9 @@
       <c r="AJ73" s="32"/>
       <c r="AK73" s="32"/>
       <c r="AL73" s="33"/>
-      <c r="AM73" s="37"/>
+      <c r="AM73" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN73" s="38"/>
       <c r="AO73" s="38"/>
     </row>
@@ -6824,7 +6834,9 @@
       <c r="AJ81" s="32"/>
       <c r="AK81" s="32"/>
       <c r="AL81" s="33"/>
-      <c r="AM81" s="37"/>
+      <c r="AM81" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN81" s="38"/>
       <c r="AO81" s="38"/>
     </row>
@@ -8621,20 +8633,6 @@
     <mergeCell ref="A105:B106"/>
     <mergeCell ref="C105:N106"/>
   </mergeCells>
-  <conditionalFormatting sqref="AM37:AO38">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="未执行">
-      <formula>NOT(ISERROR(SEARCH("未执行",AM37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="挂起">
-      <formula>NOT(ISERROR(SEARCH("挂起",AM37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",AM37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="22" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",AM37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E7:AO8">
     <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Suspend">
       <formula>NOT(ISERROR(SEARCH("Suspend",E7)))</formula>
@@ -8646,35 +8644,35 @@
       <formula>NOT(ISERROR(SEARCH("Fail",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM39:AO98 AM101:AO114">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="未执行">
-      <formula>NOT(ISERROR(SEARCH("未执行",AM39)))</formula>
+  <conditionalFormatting sqref="AM101:AO114 AM37:AO98">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="未执行">
+      <formula>NOT(ISERROR(SEARCH("未执行",AM37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="挂起">
-      <formula>NOT(ISERROR(SEARCH("挂起",AM39)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="挂起">
+      <formula>NOT(ISERROR(SEARCH("挂起",AM37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",AM39)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",AM37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",AM39)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",AM37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM99:AO100">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM99)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AO6" xr:uid="{ECEF2431-72BF-4132-958B-B168D5AFA87D}">
       <formula1>"功能验证,修改验证,发布验证"</formula1>
     </dataValidation>
@@ -8690,14 +8688,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:AE5" xr:uid="{AC71F289-E99A-4BCB-B638-B8C816B1C000}">
       <formula1>"UI,图元操作,加工,Demo,下位机,通信连接,安全,其它"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM39:AO114" xr:uid="{FBD52FAE-8FC5-4A44-A57A-29B6EABDCA27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM37:AO114" xr:uid="{FBD52FAE-8FC5-4A44-A57A-29B6EABDCA27}">
       <formula1>"Pass,Fail,非执行,挂起"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:AO8" xr:uid="{50BC0DCA-D6B6-4DD1-AAFE-A220C75C0306}">
       <formula1>"Pass,Fail,Suspend"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM37:AO38" xr:uid="{ED1A11F7-52FD-49FE-8AFD-C898C547501E}">
-      <formula1>"Pass,Fail,未执行,挂起"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
